--- a/data/trans_camb/P57GLOBAL_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>16.59220655549195</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-13.40534096182672</v>
+        <v>-13.4053409618267</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.667219463891768</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.592565595552344</v>
+        <v>-6.472535555867444</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.79334416031922</v>
+        <v>11.48694787118108</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-21.78956269930357</v>
+        <v>-23.26700687434011</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.627376429743815</v>
+        <v>-3.482034272404018</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>10.75272310246399</v>
+        <v>10.23689130868201</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-19.63285933127151</v>
+        <v>-19.8300596348671</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.824835194108125</v>
+        <v>-3.459750789250766</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>12.06325127780196</v>
+        <v>12.23925642786899</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-19.1559914033477</v>
+        <v>-18.27106961488153</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.507811413715765</v>
+        <v>5.897211505305233</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>23.19736065402994</v>
+        <v>23.07300797691173</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-4.42937738438489</v>
+        <v>-4.547098238626308</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.661097817914127</v>
+        <v>9.381972190437571</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>21.72910874477891</v>
+        <v>21.89886794672724</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.900216715528247</v>
+        <v>-3.097545554688924</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.096189586714742</v>
+        <v>5.410670201019457</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>20.44368772760012</v>
+        <v>20.45076827317686</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-6.279875183471257</v>
+        <v>-6.462303280819794</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2710274681762805</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2189712145140274</v>
+        <v>-0.2189712145140272</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.04221985006339372</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1032062981777038</v>
+        <v>-0.1010100565231538</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1686888028906244</v>
+        <v>0.1790340236006437</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3473821521294963</v>
+        <v>-0.3708432326759868</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.05691505558388055</v>
+        <v>-0.05327297987110472</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1608452389072366</v>
+        <v>0.152090551750406</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3015770799847206</v>
+        <v>-0.3062225533059897</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04394810581622691</v>
+        <v>-0.05368436012372085</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1870652718442074</v>
+        <v>0.191413109878634</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2988974105909082</v>
+        <v>-0.2899188623470954</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1122058453094453</v>
+        <v>0.1015524460265947</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4002478207317313</v>
+        <v>0.4016864179931512</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.0769497457188494</v>
+        <v>-0.07788846722039564</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.144000668971298</v>
+        <v>0.1566441953158721</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3591077781572432</v>
+        <v>0.365869048077251</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.04734870655224153</v>
+        <v>-0.05640801381246292</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1018273251537147</v>
+        <v>0.08878878464283699</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3453884079220305</v>
+        <v>0.3455669071867097</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1043278281494853</v>
+        <v>-0.1064477284677815</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>13.71981587304231</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-3.528353701190601</v>
+        <v>-3.528353701190612</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.541878499082429</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.940816643075705</v>
+        <v>-8.136083692136079</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.934693232612455</v>
+        <v>8.925202186372132</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.12351230307563</v>
+        <v>-10.73546841998687</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.426428465794498</v>
+        <v>-1.911010161943691</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.157629091205036</v>
+        <v>6.468246065752256</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-19.74605687720432</v>
+        <v>-18.76598185764408</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.396708770992543</v>
+        <v>-3.30856993301195</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>9.252044849431497</v>
+        <v>9.135769197368708</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-12.80435850605927</v>
+        <v>-12.5337591098897</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.782674774260924</v>
+        <v>2.264352224950263</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.49982154393297</v>
+        <v>18.31127093480031</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.881931082667895</v>
+        <v>2.260651928460495</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.389885503758149</v>
+        <v>8.538291025030706</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>16.72780211167584</v>
+        <v>16.48516579217667</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-7.436024622929124</v>
+        <v>-7.044149552845671</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.901988080570958</v>
+        <v>4.224708658347834</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>16.21339664800984</v>
+        <v>15.89451418208236</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-3.549853418131623</v>
+        <v>-3.763203356485858</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2022297317307064</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.05200784245543935</v>
+        <v>-0.05200784245543951</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.05109231364949641</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.09945279941273616</v>
+        <v>-0.1161737409704872</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1268682146956154</v>
+        <v>0.1266330393427392</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1409015132879197</v>
+        <v>-0.1555314789464733</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02053312069091317</v>
+        <v>-0.02591969865891775</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0995969142720862</v>
+        <v>0.09124605998534793</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2762181462543101</v>
+        <v>-0.2616327765382724</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04875413050475565</v>
+        <v>-0.04694191411841951</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1317460365123197</v>
+        <v>0.1295640767553143</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1824130696414569</v>
+        <v>-0.177885977189484</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.04285127866291191</v>
+        <v>0.03467767635081034</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2833887550207632</v>
+        <v>0.2796218186580169</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.04272632503764503</v>
+        <v>0.03319835465241518</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.141756894700403</v>
+        <v>0.1283424075740411</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2515964863539345</v>
+        <v>0.2495606030612969</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1090594960400085</v>
+        <v>-0.1046599270600348</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0587390676210078</v>
+        <v>0.06265219345711785</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2443244864277838</v>
+        <v>0.2395149116598878</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.05383297855382488</v>
+        <v>-0.05582944044091009</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>11.45089559790963</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-8.600155871114691</v>
+        <v>-8.600155871114701</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.995670759519287</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.113893913941414</v>
+        <v>-3.714739725210635</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.003810757464395</v>
+        <v>7.124673868147062</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.34324940722411</v>
+        <v>-10.93147406086542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.05079823919345583</v>
+        <v>-0.7105077641001595</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.080310303684051</v>
+        <v>6.78199523359308</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-13.3296921366456</v>
+        <v>-13.61359483441139</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.5569894903002669</v>
+        <v>-0.4348159543381705</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>8.388429739482797</v>
+        <v>8.242801164154749</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-10.41604810697862</v>
+        <v>-10.39512142844525</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.311465046042024</v>
+        <v>6.373231508503734</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.89801254157416</v>
+        <v>16.6205382721828</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4484429273513632</v>
+        <v>-0.1255777856623879</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.463940634164855</v>
+        <v>9.434983641101782</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>15.72245542800874</v>
+        <v>15.87656244958346</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-3.732437773862965</v>
+        <v>-3.485560031800313</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.337552563316808</v>
+        <v>6.585164139719732</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>14.87788207674594</v>
+        <v>14.63643279786307</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-3.310360866905611</v>
+        <v>-3.094831871773582</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.1608717097457424</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1208221459392808</v>
+        <v>-0.1208221459392809</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.04233019155552366</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.0558379442356096</v>
+        <v>-0.05101430257704233</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.09545903810152409</v>
+        <v>0.09696600934713663</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1454423046908032</v>
+        <v>-0.149456772520054</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.001000675963736748</v>
+        <v>-0.01031876554883224</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09506498539019029</v>
+        <v>0.09159147116321351</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1829320073233571</v>
+        <v>-0.1837823672773674</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.00685219282642794</v>
+        <v>-0.006013812608918951</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1156951826875915</v>
+        <v>0.1141047776898251</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1447192699596464</v>
+        <v>-0.1442616642463475</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.09376151856875281</v>
+        <v>0.09395535602099477</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2513505616670147</v>
+        <v>0.2455975298854521</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.006350726232428006</v>
+        <v>-0.001935680039894461</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1373597446789895</v>
+        <v>0.1390803063834487</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2284349573439384</v>
+        <v>0.2330198420967111</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.05349817262317963</v>
+        <v>-0.05030886898095033</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09299249413724296</v>
+        <v>0.09551813594159374</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2165829748180146</v>
+        <v>0.2124139348534911</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.04838694001181883</v>
+        <v>-0.04507995489535068</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>9.400082276782907</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-9.164561231114178</v>
+        <v>-9.164561231114165</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>8.97203871441592</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.072614118579001</v>
+        <v>-7.652301743154187</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.049202648158786</v>
+        <v>4.42584603124013</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.92345868553362</v>
+        <v>-14.58089774543959</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.654652666280549</v>
+        <v>3.528142309613767</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>9.228493805167561</v>
+        <v>9.52272249121695</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-10.19909623757925</v>
+        <v>-10.1550371296972</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.559880318802594</v>
+        <v>-0.09227964408802405</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>8.508123790755839</v>
+        <v>8.122677488772775</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-10.82070159822731</v>
+        <v>-10.59160927071285</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.018162110817908</v>
+        <v>3.746564808721787</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.75669977001109</v>
+        <v>14.8741406439465</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.631049989273601</v>
+        <v>-4.072224323111638</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.39259080344873</v>
+        <v>13.83646350042209</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>18.84543973844687</v>
+        <v>19.09558134355849</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.01620621276197647</v>
+        <v>-0.5725022514363282</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.215502217487839</v>
+        <v>7.115503506625006</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>15.52544285032947</v>
+        <v>14.88921775139637</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-3.350255393796778</v>
+        <v>-3.724148127982613</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1287910019165873</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1255641161776149</v>
+        <v>-0.1255641161776148</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.125881226934762</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1064597049780298</v>
+        <v>-0.1007816189203814</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.05534967697924786</v>
+        <v>0.05901975807140752</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1951593275740776</v>
+        <v>-0.1917278196284567</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.05044113907417613</v>
+        <v>0.04935241457073177</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1224690452945341</v>
+        <v>0.127067934978877</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1375305245637179</v>
+        <v>-0.1364830384580372</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.007280729470147897</v>
+        <v>-0.001256880621427124</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.114839291054252</v>
+        <v>0.108569517041575</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1470396065002339</v>
+        <v>-0.143859100331625</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.04298714778151816</v>
+        <v>0.05236681474398561</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2117843991793039</v>
+        <v>0.215507917958887</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.04932256533173318</v>
+        <v>-0.05778233688452521</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2118517263920468</v>
+        <v>0.2042179634668048</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2766688121377769</v>
+        <v>0.2820703481990856</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.0002997082161732094</v>
+        <v>-0.008660744275355804</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1035128382731326</v>
+        <v>0.1024242938168398</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2202146635700923</v>
+        <v>0.212659764265882</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.04824899883042686</v>
+        <v>-0.05305234424569021</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>9.517742510754967</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-4.270386261117409</v>
+        <v>-4.27038626111742</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-3.812627555065984</v>
@@ -1520,7 +1520,7 @@
         <v>10.35666580151146</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-3.864468362005491</v>
+        <v>-3.86446836200548</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-11.85692339764616</v>
+        <v>-11.73546689743967</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.774921402796601</v>
+        <v>5.516056108677773</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.699050638336914</v>
+        <v>-9.110618232480348</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-8.584230890702056</v>
+        <v>-8.270689635617853</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.131034785009775</v>
+        <v>4.2102063462873</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.829994648389649</v>
+        <v>-8.807127333531687</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-8.811525555572441</v>
+        <v>-8.516652993814912</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>6.386271032761403</v>
+        <v>6.299828190352301</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.096570594177322</v>
+        <v>-7.417098728653201</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.330825481625757</v>
+        <v>1.406887071533713</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.70947833506206</v>
+        <v>16.98122275123076</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.301504436280197</v>
+        <v>2.91429434862241</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.454120255276102</v>
+        <v>3.611864080732492</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>14.76846546769106</v>
+        <v>14.86544768746348</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.5354856825819981</v>
+        <v>0.6802661671379334</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.6579249447839919</v>
+        <v>0.3109960969523067</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>14.25291199453625</v>
+        <v>14.09554448543404</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.02908170215612472</v>
+        <v>-0.1476863906951273</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.1229803086762812</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.05517835978077028</v>
+        <v>-0.05517835978077042</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.05087831111086696</v>
@@ -1625,7 +1625,7 @@
         <v>0.1382064356169342</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.05157011031380825</v>
+        <v>-0.0515701103138081</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1550837900623064</v>
+        <v>-0.1576617847302063</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.06280596380718934</v>
+        <v>0.07487836450420501</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1139723617353368</v>
+        <v>-0.1207755699281789</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1076301271029505</v>
+        <v>-0.1033358478095781</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.0514202055299371</v>
+        <v>0.05197619585768947</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1097109715714046</v>
+        <v>-0.1106651373868397</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1127156841079452</v>
+        <v>-0.1097979081760461</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.08064714703762511</v>
+        <v>0.0809939300153102</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1061211514643049</v>
+        <v>-0.09636060183572276</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01850084708310445</v>
+        <v>0.01887402815213081</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2434695146212538</v>
+        <v>0.2502089710464568</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.03316998835875735</v>
+        <v>0.04219073176676544</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.04580983534126405</v>
+        <v>0.0478564532103869</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2001716317862553</v>
+        <v>0.2011422941650598</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.007363933788805097</v>
+        <v>0.008340274984052565</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.009117736966031242</v>
+        <v>0.004862924422976192</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1967990422394434</v>
+        <v>0.1936211163502848</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.001324350134595528</v>
+        <v>-0.001701121395256034</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>11.67840516921279</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-10.64730598043945</v>
+        <v>-10.64730598043946</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-2.054937710799443</v>
@@ -1734,7 +1734,7 @@
         <v>7.392221299401058</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-10.64011618387494</v>
+        <v>-10.64011618387495</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-9.829557114077293</v>
+        <v>-10.84505052120727</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.395354130386742</v>
+        <v>-4.245930390289501</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-16.44509903390644</v>
+        <v>-16.73370583047355</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-6.463895300053933</v>
+        <v>-6.639343435158822</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>6.706615798085402</v>
+        <v>6.484886022714918</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-15.67694263258469</v>
+        <v>-15.67488710712285</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-6.195203113544865</v>
+        <v>-6.539198769995459</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>3.418517942113604</v>
+        <v>3.290387185047634</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-14.39890529173564</v>
+        <v>-14.28520038293076</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.908917653684535</v>
+        <v>3.471082751407099</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.961198917518971</v>
+        <v>9.451183638228525</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-4.656133105079534</v>
+        <v>-3.971054831235027</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.595011603226602</v>
+        <v>5.648432441243476</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>16.84551762460934</v>
+        <v>16.76500220263526</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-4.891248590365976</v>
+        <v>-5.027567205443044</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.023940663944356</v>
+        <v>2.674216359585276</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>11.5855763891697</v>
+        <v>11.37802981727941</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-6.224599721034562</v>
+        <v>-6.349175463023837</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.1489336973569384</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.1357841780261148</v>
+        <v>-0.1357841780261149</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.02627797989746822</v>
@@ -1839,7 +1839,7 @@
         <v>0.09452969872635525</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.1360628878029677</v>
+        <v>-0.1360628878029679</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1224045469023659</v>
+        <v>-0.1324062599783317</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.04189290950146758</v>
+        <v>-0.0513022195991715</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2064293350359295</v>
+        <v>-0.2069159856657958</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.0818686259366215</v>
+        <v>-0.08203644711465674</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.08239888264230395</v>
+        <v>0.08098614506337218</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1930226013420899</v>
+        <v>-0.1928663071634687</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.07671369101030598</v>
+        <v>-0.08202819425657749</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.04468456936222685</v>
+        <v>0.04095415611202199</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1803880181194394</v>
+        <v>-0.1776157736616508</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.05226495690617544</v>
+        <v>0.0461221122412059</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1206768988057197</v>
+        <v>0.1259950060867272</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.06411247971192612</v>
+        <v>-0.053294766673052</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.07463284391161827</v>
+        <v>0.07611872379169524</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2270259244878642</v>
+        <v>0.2255509309372316</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.06776749074053669</v>
+        <v>-0.06653082406807563</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04031065317399761</v>
+        <v>0.03487648444150316</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1535533052842383</v>
+        <v>0.1499868496764094</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.084004152390034</v>
+        <v>-0.08313515098716222</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>4.471673655991104</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-8.60336859078531</v>
+        <v>-8.603368590785287</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-2.838358620787029</v>
@@ -1948,7 +1948,7 @@
         <v>6.599385079834885</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-7.338076852872655</v>
+        <v>-7.338076852872644</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-12.08283780482856</v>
+        <v>-11.06747264769128</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.604286922574201</v>
+        <v>-1.663661755897357</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-15.54921285815394</v>
+        <v>-15.72134417469309</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-8.819734284011407</v>
+        <v>-9.380892585768226</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.594541746253215</v>
+        <v>2.776630863056452</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-11.59186717130929</v>
+        <v>-11.5059322857293</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-8.56579441967386</v>
+        <v>-7.860947877310072</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>2.192888369598218</v>
+        <v>2.206173380072679</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-11.47516603437958</v>
+        <v>-11.4721261122335</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.793264847952432</v>
+        <v>4.193995634444094</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>11.96348406586252</v>
+        <v>11.32324009242882</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-1.845988705070504</v>
+        <v>-2.543152259373157</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.857141016007698</v>
+        <v>3.09812637133919</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>13.32704032841241</v>
+        <v>13.50668555675342</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-0.9365272727584681</v>
+        <v>-0.8873687187739815</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.552947148141373</v>
+        <v>1.751197098383943</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>10.96146601595866</v>
+        <v>10.89843820140171</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-2.73152045847447</v>
+        <v>-3.004776572280323</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.05509537016748746</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1060018717067117</v>
+        <v>-0.1060018717067114</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.03460649799868876</v>
@@ -2053,7 +2053,7 @@
         <v>0.08078786174075232</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.08983072378127135</v>
+        <v>-0.08983072378127123</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1426667024245745</v>
+        <v>-0.1273108437886988</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.02049402683427832</v>
+        <v>-0.01934659159079362</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1862106753091781</v>
+        <v>-0.1844179358642962</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1048916745808672</v>
+        <v>-0.108902267681576</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.03118027671927484</v>
+        <v>0.03191919040898675</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1354927839834901</v>
+        <v>-0.1361938656500507</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.09980990519657792</v>
+        <v>-0.09403019278705733</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.02660086197482847</v>
+        <v>0.02630841690410564</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1358130266300304</v>
+        <v>-0.1376448036194744</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.04960709440948319</v>
+        <v>0.05420731866298498</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1570570822912569</v>
+        <v>0.1487205278165102</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.02458419304137766</v>
+        <v>-0.03283979671261684</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.04868412332146301</v>
+        <v>0.03919057800390494</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.170937058148469</v>
+        <v>0.1732034071258396</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.01191705283957147</v>
+        <v>-0.01211088979195756</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.01943911583670658</v>
+        <v>0.02245585087175351</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1394681916685681</v>
+        <v>0.1379791166975697</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.03528531155303957</v>
+        <v>-0.03822016131761439</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>12.49459332316891</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-6.975355720159781</v>
+        <v>-6.975355720159793</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.7668008748590416</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.75691113860666</v>
+        <v>-3.686783246798833</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>9.501985235008503</v>
+        <v>9.430099428360753</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-8.491426100039146</v>
+        <v>-8.637419662556491</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.9373820883117328</v>
+        <v>1.037559112168772</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>10.45461885767644</v>
+        <v>10.67317062784197</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-9.305412852294786</v>
+        <v>-9.086664719447986</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.8803872800834392</v>
+        <v>-0.8589762894703501</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>10.70716664797944</v>
+        <v>10.53228219844673</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-8.186641092292952</v>
+        <v>-8.129159037475592</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.7618063400125151</v>
+        <v>0.7895865630787868</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>13.41159355576635</v>
+        <v>13.4546578742998</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-3.694065907798929</v>
+        <v>-3.715051934845825</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.089172470893672</v>
+        <v>5.300953906172599</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>14.36330719600461</v>
+        <v>14.50324489308224</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-4.830351732489359</v>
+        <v>-4.611394065044027</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.43508639173193</v>
+        <v>2.369330962892373</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>13.64822641599323</v>
+        <v>13.42860977627928</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-4.834728566805482</v>
+        <v>-4.839700825178699</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.1728324597632623</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.0964871649406511</v>
+        <v>-0.09648716494065125</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.01074314625440021</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.05284482496551965</v>
+        <v>-0.0513904510294728</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1334135584889669</v>
+        <v>0.1311056590783595</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1186706853171444</v>
+        <v>-0.1209067194665625</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.0127683574656401</v>
+        <v>0.01408495131741528</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1423605351258026</v>
+        <v>0.1462799450693128</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1257136085138799</v>
+        <v>-0.1241299398118413</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.01200312481899671</v>
+        <v>-0.01194269819822297</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1482862721955902</v>
+        <v>0.14571631642426</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1135736248215027</v>
+        <v>-0.1130312530886479</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.01093761786838029</v>
+        <v>0.01137779649991603</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1941615636645345</v>
+        <v>0.1939795477530782</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.05332243996514954</v>
+        <v>-0.05373084601261258</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.07183297713244061</v>
+        <v>0.07424816002272551</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2028492962195564</v>
+        <v>0.2041591737269377</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.06697707454600414</v>
+        <v>-0.0653744364116743</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.03466302676446865</v>
+        <v>0.03373034430123582</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1935473704171365</v>
+        <v>0.1905263315140635</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.06842093855051273</v>
+        <v>-0.06888294594804897</v>
       </c>
     </row>
     <row r="52">
